--- a/biology/Zoologie/Afronemacheilus/Afronemacheilus.xlsx
+++ b/biology/Zoologie/Afronemacheilus/Afronemacheilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afronemacheilus est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes). Ces poissons sont des « loches de pierre » endémiques de l'Éthiopie.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 février 2024) :
 Afronemacheilus abyssinicus (Boulenger, 1902)
-Afronemacheilus kaffa Prokofiev &amp; Golubtsov, 2013[2]</t>
+Afronemacheilus kaffa Prokofiev &amp; Golubtsov, 2013</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afronemacheilus Golubtsov (d) &amp; Prokofiev (d) in Prokofiev, 2009[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afronemacheilus Golubtsov (d) &amp; Prokofiev (d) in Prokofiev, 2009.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Afronemacheilus, est la combinaison du latin Afer, « de l'Afrique », et du genre Nemacheilus[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Afronemacheilus, est la combinaison du latin Afer, « de l'Afrique », et du genre Nemacheilus
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. M. Prokofiev, « Problems of the classification and phylogeny of Nemacheiline loaches of the group lacking the preethmoid I (Cypriniformes: Balitoridae: Nemacheilinae) », Journal of Ichthyology, Russie, vol. 49, no 10,‎ 2009, p. 874-898 (ISSN 0032-9452, e-ISSN 1555-6425).</t>
         </is>
